--- a/data/trans_camb/P24_3_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P24_3_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,36</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>9,79</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>3,14</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4,34</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4,54</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7,43</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 4,14</t>
+          <t>-1,07; 6,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 8,99</t>
+          <t>1,73; 11,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 5,63</t>
+          <t>-0,29; 7,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 7,31</t>
+          <t>0,92; 9,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 6,82</t>
+          <t>0,2; 8,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,18; 8,89</t>
+          <t>-0,93; 7,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 4,63</t>
+          <t>1,99; 11,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 6,81</t>
+          <t>4,7; 16,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,4</t>
+          <t>0,2; 6,12</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1,28; 7,7</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1,78; 7,8</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3,95; 11,95</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>50,44%</t>
+          <t>123,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>223,33%</t>
+          <t>343,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>119,69%</t>
+          <t>192,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>120,57%</t>
+          <t>281,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>113,39%</t>
+          <t>132,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>169,79%</t>
+          <t>96,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>93,01%</t>
+          <t>192,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>155,69%</t>
+          <t>327,14%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>147,97%</t>
+          <t>129,64%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>179,08%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>187,53%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>306,59%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-48,04; 337,13</t>
+          <t>-56,74; 1069,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,22; 792,38</t>
+          <t>25,29; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 474,82</t>
+          <t>-40,22; inf</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,01; 370,9</t>
+          <t>-0,08; 1814,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,81; 334,43</t>
+          <t>-2,27; 705,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,28; 478,18</t>
+          <t>-37,27; 509,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,59; 257,31</t>
+          <t>22,43; 909,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,22; 343,89</t>
+          <t>76,15; 1284,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,28; 331,91</t>
+          <t>-4,84; 412,92</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14,1; 526,1</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>35,96; 520,85</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>81,68; 877,72</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>6,93</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>11,7</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>3,84</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4,54</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,55</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>8,71</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 5,16</t>
+          <t>1,93; 13,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 7,17</t>
+          <t>1,72; 13,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 2,9</t>
+          <t>-1,02; 8,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 7,38</t>
+          <t>0,57; 12,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 7,04</t>
+          <t>-2,94; 5,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 7,28</t>
+          <t>-2,17; 7,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 5,23</t>
+          <t>-4,03; 4,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 5,77</t>
+          <t>4,14; 27,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 4,15</t>
+          <t>0,51; 7,62</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 8,49</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 4,99</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3,85; 18,4</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>259,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>55,5%</t>
+          <t>258,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-15,89%</t>
+          <t>117,59%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>51,49%</t>
+          <t>211,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>67,31%</t>
+          <t>35,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>43,14%</t>
+          <t>68,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>39,59%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>61,61%</t>
+          <t>329,51%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>122,45%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>144,57%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>49,45%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>277,33%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-49,39; 214,69</t>
+          <t>19,38; 1355,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,58; 271,55</t>
+          <t>16,91; 1530,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-67,65; 128,34</t>
+          <t>-45,07; 818,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,34; 255,37</t>
+          <t>-11,14; 1334,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,99; 230,29</t>
+          <t>-65,36; 311,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,16; 251,32</t>
+          <t>-51,56; 419,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,13; 159,03</t>
+          <t>-78,58; 265,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 179,87</t>
+          <t>53,24; 1500,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-40,67; 134,36</t>
+          <t>1,97; 403,43</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>8,35; 429,65</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-38,67; 265,95</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>67,45; 951,65</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-4,97</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>-5,6</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>9,99</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-2,82</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,2</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3,18</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 7,39</t>
+          <t>-20,15; 7,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 12,41</t>
+          <t>-21,04; 4,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 8,47</t>
+          <t>-12,26; 21,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 4,84</t>
+          <t>-18,17; 9,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 10,88</t>
+          <t>0,0; 14,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 6,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 4,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 8,73</t>
+          <t>2,06; 26,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 6,03</t>
+          <t>-7,22; 6,48</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-8,87; 2,17</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-6,06; 10,87</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,34; 13,15</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>-58,58%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>77,96%</t>
+          <t>-65,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>27,91%</t>
+          <t>39,86%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>30,09%</t>
+          <t>-39,77%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>179,59%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>63,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>106,2%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>39,44%</t>
+          <t>-7,67%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-65,68%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>51,12%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>73,88%</t>
         </is>
       </c>
     </row>
@@ -1228,12 +1417,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-84,67; 923,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 897,02</t>
+          <t>-83,95; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1253,17 +1442,32 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-83,52; 516,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-55,55; 614,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-73,59; 677,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>4,26</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>2,89</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>3,33</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>10,54</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>3,08</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3,72</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3,08</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>7,48</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 3,42</t>
+          <t>0,09; 6,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,09; 6,67</t>
+          <t>2,02; 9,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 3,42</t>
+          <t>0,21; 6,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,44; 5,66</t>
+          <t>1,33; 7,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,97; 5,89</t>
+          <t>-0,02; 5,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,25; 6,53</t>
+          <t>-0,7; 5,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,79</t>
+          <t>0,02; 6,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,82; 5,4</t>
+          <t>6,02; 18,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 4,05</t>
+          <t>1,03; 5,06</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1,65; 5,99</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 5,23</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4,75; 11,72</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>31,07%</t>
+          <t>114,97%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>112,97%</t>
+          <t>177,84%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>34,52%</t>
+          <t>113,84%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>81,18%</t>
+          <t>148,2%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>93,77%</t>
+          <t>98,57%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>100,57%</t>
+          <t>83,64%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>57,87%</t>
+          <t>99,02%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>102,81%</t>
+          <t>359,14%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>68,44%</t>
+          <t>106,04%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>128,01%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>106,16%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>257,32%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-30,86; 138,56</t>
+          <t>-2,51; 353,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17,38; 282,59</t>
+          <t>40,64; 529,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,8; 151,36</t>
+          <t>2,06; 381,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,97; 200,57</t>
+          <t>19,72; 435,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>17,74; 210,63</t>
+          <t>-7,08; 291,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,87; 247,54</t>
+          <t>-19,92; 301,72</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,24; 140,19</t>
+          <t>-7,1; 306,19</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>42,09; 191,89</t>
+          <t>134,41; 851,38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,34; 150,34</t>
+          <t>23,23; 245,67</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>42,35; 279,87</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>24,86; 251,78</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>119,55; 540,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
